--- a/Toto/trunk/web/WEB-INF/premiumsv5headings.xlsx
+++ b/Toto/trunk/web/WEB-INF/premiumsv5headings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23408"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edd\AppData\Local\Temp\scp16019\home\edward\ideaprojects\Toto\web\WEB-INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billc\projects\Toto\web\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97127C48-0530-490F-B6EB-16128007E637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2855DDFA-2310-4518-A460-9DC06BB4E10E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium V5" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,11 @@
     <definedName name="az_RowHeadings2" localSheetId="0">'Premium V5'!#REF!</definedName>
     <definedName name="az_SectionChoice" localSheetId="0">'Premium V5'!#REF!</definedName>
     <definedName name="az_SectionChosen" localSheetId="0">'Premium V5'!#REF!</definedName>
+    <definedName name="BrokerInfo">'Premium V5'!$E$21:$L$25</definedName>
+    <definedName name="ContractYearLOB">'Premium V5'!$A$21</definedName>
+    <definedName name="SectionLookups">'Premium V5'!$B$21:$C$70</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Coverholder Name</t>
   </si>
@@ -633,6 +636,39 @@
   </si>
   <si>
     <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>Risk Category</t>
+  </si>
+  <si>
+    <t>Brokasure Category</t>
+  </si>
+  <si>
+    <t>Brokasure Section</t>
+  </si>
+  <si>
+    <t>Brokasure Settlement Currency</t>
+  </si>
+  <si>
+    <t>Brokasure Risk Code</t>
+  </si>
+  <si>
+    <t>Brokasure Claim Suffix</t>
+  </si>
+  <si>
+    <t>Brokasure Gross Premium</t>
+  </si>
+  <si>
+    <t>Brokasure Deductions</t>
+  </si>
+  <si>
+    <t>Brokasure Additional Deductions</t>
+  </si>
+  <si>
+    <t>Brokasure Fees</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -642,18 +678,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -667,8 +698,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,13 +728,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,45 +753,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent1 3" xfId="4" xr:uid="{F4F8DEAE-DE1A-4336-9C92-80FDCA9A5CF4}"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{96233A30-816A-4428-85CA-5EFE0C1DD579}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1072,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GM1"/>
+  <dimension ref="A1:GW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1164,8 @@
     <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1123,16 +1199,16 @@
     <col min="41" max="41" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="42" max="42" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="43" max="43" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="27.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="26.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="24.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="29.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="34.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="23.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="22.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="27.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="26.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="24.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="29.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="34.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="54" max="54" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="55" max="55" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="56" max="56" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1150,22 +1226,22 @@
     <col min="68" max="68" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="69" max="69" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="70" max="70" width="49.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="33.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="11.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="16.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="16.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="16.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="22.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="17.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="49.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="15.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="33.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="11.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="16.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="16.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="15" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="22.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="33.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="16.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="16.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="22.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="49.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="33.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="11.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="16.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="16.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="15" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="22.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="87" max="87" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="88" max="88" width="49.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="89" max="89" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1197,13 +1273,13 @@
     <col min="115" max="115" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="116" max="116" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="117" max="117" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="118" max="118" width="21.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="119" width="31.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="118" max="118" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="119" width="31.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="120" max="120" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="121" max="121" width="69.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="122" max="122" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="123" max="123" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="125" max="125" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="126" max="126" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="127" max="127" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1275,591 +1351,847 @@
     <col min="195" max="195" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:195" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:205" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DE1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DF1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DG1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DH1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DK1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DL1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DM1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DN1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DO1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DP1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DR1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DS1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DT1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DU1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DV1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DW1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DX1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DY1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EB1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EC1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="ED1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EE1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EF1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EG1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EH1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EI1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EK1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EL1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EM1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EN1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EO1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EP1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ER1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ES1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="ET1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EU1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EV1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EW1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EX1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EY1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FA1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FB1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FC1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FD1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FE1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FF1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FG1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FH1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FI1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FK1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FL1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FM1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FN1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FO1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FP1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FR1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FS1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FT1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FU1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FV1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FW1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FX1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FY1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="FZ1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GA1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GB1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GC1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GD1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GE1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GF1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GG1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GH1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GI1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GJ1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GK1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GL1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GM1" s="4" t="s">
         <v>193</v>
+      </c>
+      <c r="GN1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:205" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="2"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="2"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2" s="2"/>
+      <c r="DK2" s="2"/>
+      <c r="DL2" s="8"/>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="2"/>
+      <c r="DO2" s="2"/>
+      <c r="DP2" s="2"/>
+      <c r="DQ2" s="2"/>
+      <c r="DR2" s="2"/>
+      <c r="DS2" s="2"/>
+      <c r="DT2" s="2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="2"/>
+      <c r="DW2" s="2"/>
+      <c r="DX2" s="2"/>
+      <c r="DY2" s="2"/>
+      <c r="DZ2" s="2"/>
+      <c r="EA2" s="2"/>
+      <c r="EB2" s="2"/>
+      <c r="EC2" s="8"/>
+      <c r="ED2" s="8"/>
+      <c r="EE2" s="2"/>
+      <c r="EF2" s="8"/>
+      <c r="EG2" s="8"/>
+      <c r="EH2" s="8"/>
+      <c r="EI2" s="2"/>
+      <c r="EJ2" s="2"/>
+      <c r="EK2" s="2"/>
+      <c r="EL2" s="2"/>
+      <c r="EM2" s="2"/>
+      <c r="EN2" s="7"/>
+      <c r="EO2" s="7"/>
+      <c r="EP2" s="7"/>
+      <c r="EQ2" s="2"/>
+      <c r="ER2" s="7"/>
+      <c r="ES2" s="7"/>
+      <c r="ET2" s="2"/>
+      <c r="EU2" s="8"/>
+      <c r="EV2" s="2"/>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2"/>
+      <c r="EY2" s="2"/>
+      <c r="EZ2" s="2"/>
+      <c r="FA2" s="2"/>
+      <c r="FB2" s="2"/>
+      <c r="FC2" s="2"/>
+      <c r="FD2" s="2"/>
+      <c r="FE2" s="2"/>
+      <c r="FF2" s="2"/>
+      <c r="FG2" s="2"/>
+      <c r="FH2" s="2"/>
+      <c r="FI2" s="2"/>
+      <c r="FJ2" s="2"/>
+      <c r="FK2" s="2"/>
+      <c r="FL2" s="2"/>
+      <c r="FM2" s="2"/>
+      <c r="FN2" s="2"/>
+      <c r="FO2" s="2"/>
+      <c r="FP2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2"/>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2"/>
+      <c r="FW2" s="7"/>
+      <c r="FX2" s="2"/>
+      <c r="FY2" s="2"/>
+      <c r="FZ2" s="2"/>
+      <c r="GA2" s="2"/>
+      <c r="GB2" s="2"/>
+      <c r="GC2" s="2"/>
+      <c r="GD2" s="7"/>
+      <c r="GE2" s="2"/>
+      <c r="GF2" s="2"/>
+      <c r="GG2" s="2"/>
+      <c r="GH2" s="2"/>
+      <c r="GI2" s="2"/>
+      <c r="GJ2" s="2"/>
+      <c r="GK2" s="2"/>
+      <c r="GL2" s="2"/>
+      <c r="GM2" s="2"/>
+      <c r="GN2" s="10"/>
+      <c r="GO2" s="11" t="str">
+        <f>C2&amp;" "&amp;GP2</f>
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="GP2" s="11">
+        <f>G2</f>
+        <v>0</v>
+      </c>
+      <c r="GQ2" s="11">
+        <f>AH2</f>
+        <v>0</v>
+      </c>
+      <c r="GR2" s="11">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="GS2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="GT2" s="12">
+        <f>AA2</f>
+        <v>0</v>
+      </c>
+      <c r="GU2" s="12">
+        <f>AD2</f>
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2007,18 +2339,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2040,14 +2372,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2542EE4F-A211-45C5-9685-B5B65303DEDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF253C7-A6C3-47B2-A6EF-D2EC8E0E0FCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2061,4 +2385,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2542EE4F-A211-45C5-9685-B5B65303DEDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>